--- a/BookingPortal/Files/export/AirBooking/du-lieu-dat-cho.xlsx
+++ b/BookingPortal/Files/export/AirBooking/du-lieu-dat-cho.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>DỮ LIỆU ĐẶT CHỖ 04/12/2020 - 04/12/2020</t>
   </si>
@@ -78,18 +78,6 @@
   </si>
   <si>
     <t>CWUGGX</t>
-  </si>
-  <si>
-    <t>FL1</t>
-  </si>
-  <si>
-    <t>dl01 tickting 01</t>
-  </si>
-  <si>
-    <t>KOVSJI</t>
-  </si>
-  <si>
-    <t>KOZZVT</t>
   </si>
 </sst>
 </file>
@@ -202,7 +190,7 @@
   <sheetPr>
     <tabColor rgb="FF000000"/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -338,13 +326,13 @@
         <v>21</v>
       </c>
       <c r="I3" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="7">
         <v>2636000</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="L3" s="8">
         <v>0</v>
@@ -353,95 +341,7 @@
         <v>100000</v>
       </c>
       <c r="N3" s="8">
-        <v>2736000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2683000</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>101000</v>
-      </c>
-      <c r="M4" s="8">
-        <v>150000</v>
-      </c>
-      <c r="N4" s="8">
-        <v>2934000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2636000</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>101000</v>
-      </c>
-      <c r="M5" s="8">
-        <v>150000</v>
-      </c>
-      <c r="N5" s="8">
-        <v>2887000</v>
+        <v>2936000</v>
       </c>
     </row>
   </sheetData>

--- a/BookingPortal/Files/export/AirBooking/du-lieu-dat-cho.xlsx
+++ b/BookingPortal/Files/export/AirBooking/du-lieu-dat-cho.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="T 2020-12" sheetId="1" r:id="rId1"/>
+    <sheet name="T 2021-01" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>DỮ LIỆU ĐẶT CHỖ 04/12/2020 - 04/12/2020</t>
+    <t>DỮ LIỆU ĐẶT CHỖ 14/01/2021 - 14/01/2021</t>
   </si>
   <si>
     <t>#</t>
@@ -59,16 +59,16 @@
     <t>Tổng chi phí</t>
   </si>
   <si>
-    <t>04-12-2020</t>
+    <t>14-01-2021</t>
   </si>
   <si>
     <t>Khách lẻ</t>
   </si>
   <si>
-    <t>FOC</t>
-  </si>
-  <si>
-    <t>foc tickting01</t>
+    <t>GIG</t>
+  </si>
+  <si>
+    <t>Tô Đức Anh</t>
   </si>
   <si>
     <t>Nội địa</t>
@@ -77,7 +77,7 @@
     <t>VNA</t>
   </si>
   <si>
-    <t>CWUGGX</t>
+    <t>ZNWAHU</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
     <col min="5" max="5" width="17.3796787261963" customWidth="1"/>
     <col min="6" max="6" width="15.4706392288208" customWidth="1"/>
     <col min="7" max="7" width="16.6338634490967" customWidth="1"/>
-    <col min="8" max="8" width="9.71180438995361" customWidth="1"/>
+    <col min="8" max="8" width="9.71487331390381" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="14.2112445831299" customWidth="1"/>
@@ -326,22 +326,22 @@
         <v>21</v>
       </c>
       <c r="I3" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>2636000</v>
+        <v>3160000</v>
       </c>
       <c r="K3" s="7">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="8">
         <v>0</v>
       </c>
       <c r="M3" s="8">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="8">
-        <v>2936000</v>
+        <v>3160000</v>
       </c>
     </row>
   </sheetData>
